--- a/EXCEL/my pratice/day4 sumifs.xlsx
+++ b/EXCEL/my pratice/day4 sumifs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E2161F-5970-46E8-A74C-DC77DDDD2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB19ECF-E9F8-4D84-96ED-0F1999699FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8DA10ABC-60EA-4728-ACCB-813870E49DA3}"/>
+    <workbookView minimized="1" xWindow="12612" yWindow="2952" windowWidth="11124" windowHeight="9984" xr2:uid="{8DA10ABC-60EA-4728-ACCB-813870E49DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="sumifs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId3"/>
     <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,7 +372,6 @@
     <xf numFmtId="15" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,85 +1585,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA9A891E-25DF-414E-9350-0F206487DD1C}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="J20:M27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8829A697-51A8-4D2B-99A6-E56C1D3A4027}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="J12:P16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
@@ -1750,8 +1670,168 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA9A891E-25DF-414E-9350-0F206487DD1C}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="J20:M27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E01B427-5042-416A-81C9-E1257390B464}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F55BBEE-9F63-4B03-9425-706217E36362}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="K17:N24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="15" showAll="0">
+      <items count="10">
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E01B427-5042-416A-81C9-E1257390B464}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="K3:Q7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1811,87 +1891,6 @@
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F55BBEE-9F63-4B03-9425-706217E36362}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="K17:N24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" numFmtId="15" showAll="0">
-      <items count="10">
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -2211,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53A4962-FEA2-4989-8A1B-CF815029DF52}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -2269,7 +2268,7 @@
       </c>
       <c r="E2" s="19">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -2298,7 +2297,7 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E11" ca="1" si="1">TODAY()</f>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -2344,7 +2343,7 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -2366,7 +2365,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
@@ -2397,7 +2396,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2419,7 +2418,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
@@ -2450,7 +2449,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="H6">
         <f>SUM(H4:H5)</f>
@@ -2469,7 +2468,7 @@
       </c>
       <c r="M6" s="17">
         <f ca="1">COUNTIF($E:$E,M$3)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N6" s="17">
         <f ca="1">COUNTIF($E:$E,N$3)</f>
@@ -2500,7 +2499,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -2530,7 +2529,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="I8">
         <f>COUNTIF(C:C,"&gt;34")</f>
@@ -2553,7 +2552,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -2579,7 +2578,7 @@
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -2605,7 +2604,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -2631,7 +2630,7 @@
       </c>
       <c r="E12" s="20">
         <f ca="1">E2-1</f>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -2659,7 +2658,7 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" ref="E13:E51" ca="1" si="3">E3-1</f>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="H13">
         <f>SUM(H10:H12)</f>
@@ -2703,7 +2702,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -2746,7 +2745,7 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -2793,7 +2792,7 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -2840,7 +2839,7 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -2862,7 +2861,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="H18">
         <f ca="1">SUM(H15:H17)</f>
@@ -2888,7 +2887,7 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2907,7 +2906,7 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2939,7 +2938,7 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2977,7 +2976,7 @@
       </c>
       <c r="E22" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="J22" s="10">
         <v>45754</v>
@@ -3008,7 +3007,7 @@
       </c>
       <c r="E23" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -3046,7 +3045,7 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="J24" s="10">
         <v>45756</v>
@@ -3077,7 +3076,7 @@
       </c>
       <c r="E25" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="J25" s="10">
         <v>45757</v>
@@ -3108,14 +3107,14 @@
       </c>
       <c r="E26" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="11">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="I26">
         <f ca="1">SUMIFS(C:C,D:D,G26,E:E,H26)</f>
@@ -3150,14 +3149,14 @@
       </c>
       <c r="E27" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="11">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27:I35" ca="1" si="4">SUMIFS(C:C,D:D,G27,E:E,H27)</f>
@@ -3192,7 +3191,7 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G28" t="str">
         <f>G26</f>
@@ -3200,7 +3199,7 @@
       </c>
       <c r="H28" s="11">
         <f ca="1">H26-1</f>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
@@ -3223,7 +3222,7 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ref="G29:G35" si="5">G27</f>
@@ -3231,7 +3230,7 @@
       </c>
       <c r="H29" s="11">
         <f t="shared" ref="H29:H35" ca="1" si="6">H27-1</f>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
@@ -3254,7 +3253,7 @@
       </c>
       <c r="E30" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="5"/>
@@ -3262,7 +3261,7 @@
       </c>
       <c r="H30" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
@@ -3288,7 +3287,7 @@
       </c>
       <c r="E31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="5"/>
@@ -3296,7 +3295,7 @@
       </c>
       <c r="H31" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
@@ -3319,7 +3318,7 @@
       </c>
       <c r="E32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="5"/>
@@ -3327,7 +3326,7 @@
       </c>
       <c r="H32" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
@@ -3350,7 +3349,7 @@
       </c>
       <c r="E33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="5"/>
@@ -3358,7 +3357,7 @@
       </c>
       <c r="H33" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="4"/>
@@ -3381,7 +3380,7 @@
       </c>
       <c r="E34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="5"/>
@@ -3389,7 +3388,7 @@
       </c>
       <c r="H34" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="4"/>
@@ -3412,7 +3411,7 @@
       </c>
       <c r="E35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="5"/>
@@ -3420,7 +3419,7 @@
       </c>
       <c r="H35" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="4"/>
@@ -3443,7 +3442,7 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3462,7 +3461,7 @@
       </c>
       <c r="E37" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="I37">
         <f ca="1">SUM(I26:I36)</f>
@@ -3485,7 +3484,7 @@
       </c>
       <c r="E38" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3504,7 +3503,7 @@
       </c>
       <c r="E39" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3523,7 +3522,7 @@
       </c>
       <c r="E40" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3542,7 +3541,7 @@
       </c>
       <c r="E41" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3561,7 +3560,7 @@
       </c>
       <c r="E42" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3580,7 +3579,7 @@
       </c>
       <c r="E43" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3599,7 +3598,7 @@
       </c>
       <c r="E44" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3618,7 +3617,7 @@
       </c>
       <c r="E45" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3637,7 +3636,7 @@
       </c>
       <c r="E46" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3656,7 +3655,7 @@
       </c>
       <c r="E47" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3675,7 +3674,7 @@
       </c>
       <c r="E48" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3694,7 +3693,7 @@
       </c>
       <c r="E49" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3713,7 +3712,7 @@
       </c>
       <c r="E50" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3732,7 +3731,7 @@
       </c>
       <c r="E51" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +3743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6323D2-4127-41BA-8143-011E5256B8C7}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3795,7 +3794,7 @@
       </c>
       <c r="E2" s="19">
         <f ca="1">TODAY()</f>
-        <v>45762</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -3814,7 +3813,7 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E11" ca="1" si="1">TODAY()</f>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>23</v>
@@ -3839,7 +3838,7 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -3882,27 +3881,27 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5">
         <v>56</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5">
         <v>53</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5">
         <v>11</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5">
         <v>49</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5">
         <v>75</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5">
         <v>244</v>
       </c>
     </row>
@@ -3922,7 +3921,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -3930,22 +3929,22 @@
       <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6">
         <v>470</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6">
         <v>434</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6">
         <v>480</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6">
         <v>467</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6">
         <v>537</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6">
         <v>2388</v>
       </c>
     </row>
@@ -3965,7 +3964,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G7" s="24">
         <v>45758</v>
@@ -3973,22 +3972,22 @@
       <c r="K7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7">
         <v>526</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7">
         <v>487</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7">
         <v>491</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7">
         <v>516</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7">
         <v>612</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7">
         <v>2632</v>
       </c>
     </row>
@@ -4008,7 +4007,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4027,7 +4026,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -4046,7 +4045,7 @@
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>16</v>
@@ -4086,7 +4085,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -4112,7 +4111,7 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f>SUMIFS($C:$C,$D:$D,$K11)</f>
@@ -4138,7 +4137,7 @@
       </c>
       <c r="E12" s="20">
         <f ca="1">E2-1</f>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="2"/>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f>SUMIFS($C:$C,$D:$D,$K12)</f>
@@ -4184,7 +4183,7 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" ref="E13:E51" ca="1" si="3">E3-1</f>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4210,7 +4209,7 @@
       </c>
       <c r="P13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="17">
         <f>SUM(Q11:Q12)</f>
@@ -4233,7 +4232,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="Q14" t="s">
         <v>46</v>
@@ -4255,7 +4254,7 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4274,7 +4273,7 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4293,7 +4292,7 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>23</v>
@@ -4318,7 +4317,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>16</v>
@@ -4349,18 +4348,18 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="K19" s="25">
         <v>45758</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19">
         <v>56</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19">
         <v>470</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19">
         <v>526</v>
       </c>
     </row>
@@ -4380,18 +4379,18 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="K20" s="25">
         <v>45762</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20">
         <v>53</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20">
         <v>434</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20">
         <v>487</v>
       </c>
     </row>
@@ -4411,18 +4410,18 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45761</v>
+        <v>45773</v>
       </c>
       <c r="K21" s="25">
         <v>45761</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21">
         <v>480</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21">
         <v>491</v>
       </c>
     </row>
@@ -4442,18 +4441,18 @@
       </c>
       <c r="E22" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K22" s="25">
         <v>45760</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22">
         <v>49</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22">
         <v>467</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22">
         <v>516</v>
       </c>
     </row>
@@ -4473,18 +4472,18 @@
       </c>
       <c r="E23" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K23" s="25">
         <v>45759</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23">
         <v>75</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23">
         <v>537</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23">
         <v>612</v>
       </c>
     </row>
@@ -4504,18 +4503,18 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24">
         <v>244</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24">
         <v>2388</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24">
         <v>2632</v>
       </c>
     </row>
@@ -4535,7 +4534,7 @@
       </c>
       <c r="E25" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -4554,7 +4553,7 @@
       </c>
       <c r="E26" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -4573,7 +4572,7 @@
       </c>
       <c r="E27" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>16</v>
@@ -4604,7 +4603,7 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K28" s="25">
         <v>45754</v>
@@ -4638,7 +4637,7 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K29" s="25">
         <v>45755</v>
@@ -4672,7 +4671,7 @@
       </c>
       <c r="E30" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K30" s="25">
         <v>45756</v>
@@ -4706,7 +4705,7 @@
       </c>
       <c r="E31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="K31" s="25">
         <v>45757</v>
@@ -4740,22 +4739,22 @@
       </c>
       <c r="E32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="K32" s="25">
         <v>45758</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="6"/>
-        <v>526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -4774,7 +4773,7 @@
       </c>
       <c r="E33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>17</v>
@@ -4789,7 +4788,7 @@
       </c>
       <c r="N33" s="17">
         <f ca="1">SUM(N28:N32)</f>
-        <v>526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -4808,7 +4807,7 @@
       </c>
       <c r="E34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -4827,7 +4826,7 @@
       </c>
       <c r="E35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -4846,7 +4845,7 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4865,7 +4864,7 @@
       </c>
       <c r="E37" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -4884,7 +4883,7 @@
       </c>
       <c r="E38" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -4903,7 +4902,7 @@
       </c>
       <c r="E39" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -4922,7 +4921,7 @@
       </c>
       <c r="E40" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4941,7 +4940,7 @@
       </c>
       <c r="E41" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45759</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -4960,7 +4959,7 @@
       </c>
       <c r="E42" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -4979,7 +4978,7 @@
       </c>
       <c r="E43" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -4998,7 +4997,7 @@
       </c>
       <c r="E44" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -5017,7 +5016,7 @@
       </c>
       <c r="E45" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -5036,7 +5035,7 @@
       </c>
       <c r="E46" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -5055,7 +5054,7 @@
       </c>
       <c r="E47" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -5074,7 +5073,7 @@
       </c>
       <c r="E48" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -5093,7 +5092,7 @@
       </c>
       <c r="E49" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -5112,7 +5111,7 @@
       </c>
       <c r="E50" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5131,7 +5130,7 @@
       </c>
       <c r="E51" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45758</v>
+        <v>45770</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL/my pratice/day4 sumifs.xlsx
+++ b/EXCEL/my pratice/day4 sumifs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB19ECF-E9F8-4D84-96ED-0F1999699FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A192D-B42C-4B2C-A313-424E24EB1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12612" yWindow="2952" windowWidth="11124" windowHeight="9984" xr2:uid="{8DA10ABC-60EA-4728-ACCB-813870E49DA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8DA10ABC-60EA-4728-ACCB-813870E49DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="sumifs" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +372,7 @@
     <xf numFmtId="15" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +471,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant" refreshedDate="45762.667620138891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{B1009014-D9FA-41C1-B94D-3E865458CBD5}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant" refreshedDate="45777.689567592592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{B1009014-D9FA-41C1-B94D-3E865458CBD5}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E51" sheet="Sheet3"/>
   </cacheSource>
@@ -491,12 +492,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="date" numFmtId="15">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-04-07T00:00:00" maxDate="2025-04-16T00:00:00" count="9">
-        <d v="2025-04-15T00:00:00"/>
-        <d v="2025-04-14T00:00:00"/>
-        <d v="2025-04-13T00:00:00"/>
-        <d v="2025-04-12T00:00:00"/>
-        <d v="2025-04-11T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-04-07T00:00:00" maxDate="2025-05-01T00:00:00" count="14">
+        <d v="2025-04-30T00:00:00"/>
+        <d v="2025-04-29T00:00:00"/>
+        <d v="2025-04-28T00:00:00"/>
+        <d v="2025-04-27T00:00:00"/>
+        <d v="2025-04-26T00:00:00"/>
+        <d v="2025-04-15T00:00:00" u="1"/>
+        <d v="2025-04-14T00:00:00" u="1"/>
+        <d v="2025-04-13T00:00:00" u="1"/>
+        <d v="2025-04-12T00:00:00" u="1"/>
+        <d v="2025-04-11T00:00:00" u="1"/>
         <d v="2025-04-10T00:00:00" u="1"/>
         <d v="2025-04-09T00:00:00" u="1"/>
         <d v="2025-04-08T00:00:00" u="1"/>
@@ -1585,7 +1591,86 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8829A697-51A8-4D2B-99A6-E56C1D3A4027}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA9A891E-25DF-414E-9350-0F206487DD1C}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="J20:M27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8829A697-51A8-4D2B-99A6-E56C1D3A4027}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="J12:P16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1670,168 +1755,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA9A891E-25DF-414E-9350-0F206487DD1C}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="J20:M27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F55BBEE-9F63-4B03-9425-706217E36362}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="K17:N24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" numFmtId="15" showAll="0">
-      <items count="10">
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E01B427-5042-416A-81C9-E1257390B464}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E01B427-5042-416A-81C9-E1257390B464}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="K3:Q7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1845,16 +1770,21 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" numFmtId="15" showAll="0">
-      <items count="10">
+      <items count="15">
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1878,19 +1808,105 @@
   </colFields>
   <colItems count="6">
     <i>
-      <x v="4"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="12"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F55BBEE-9F63-4B03-9425-706217E36362}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="K17:N24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="15" showAll="0">
+      <items count="15">
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -2210,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53A4962-FEA2-4989-8A1B-CF815029DF52}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -2268,7 +2284,7 @@
       </c>
       <c r="E2" s="19">
         <f ca="1">TODAY()</f>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -2297,7 +2313,7 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E11" ca="1" si="1">TODAY()</f>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -2343,7 +2359,7 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -2396,7 +2412,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
@@ -2449,7 +2465,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="H6">
         <f>SUM(H4:H5)</f>
@@ -2499,7 +2515,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -2529,7 +2545,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="I8">
         <f>COUNTIF(C:C,"&gt;34")</f>
@@ -2552,7 +2568,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -2578,7 +2594,7 @@
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -2604,7 +2620,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -2630,7 +2646,7 @@
       </c>
       <c r="E12" s="20">
         <f ca="1">E2-1</f>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -2658,7 +2674,7 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" ref="E13:E51" ca="1" si="3">E3-1</f>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="H13">
         <f>SUM(H10:H12)</f>
@@ -2702,7 +2718,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -2745,7 +2761,7 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -2792,7 +2808,7 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -2839,7 +2855,7 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -2861,7 +2877,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="H18">
         <f ca="1">SUM(H15:H17)</f>
@@ -2887,7 +2903,7 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2906,7 +2922,7 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2938,7 +2954,7 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2976,7 +2992,7 @@
       </c>
       <c r="E22" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="J22" s="10">
         <v>45754</v>
@@ -3007,7 +3023,7 @@
       </c>
       <c r="E23" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -3045,7 +3061,7 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="J24" s="10">
         <v>45756</v>
@@ -3076,7 +3092,7 @@
       </c>
       <c r="E25" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="J25" s="10">
         <v>45757</v>
@@ -3107,14 +3123,14 @@
       </c>
       <c r="E26" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="11">
         <f ca="1">TODAY()</f>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="I26">
         <f ca="1">SUMIFS(C:C,D:D,G26,E:E,H26)</f>
@@ -3149,14 +3165,14 @@
       </c>
       <c r="E27" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="11">
         <f ca="1">TODAY()</f>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27:I35" ca="1" si="4">SUMIFS(C:C,D:D,G27,E:E,H27)</f>
@@ -3191,7 +3207,7 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G28" t="str">
         <f>G26</f>
@@ -3199,7 +3215,7 @@
       </c>
       <c r="H28" s="11">
         <f ca="1">H26-1</f>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
@@ -3222,7 +3238,7 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ref="G29:G35" si="5">G27</f>
@@ -3230,7 +3246,7 @@
       </c>
       <c r="H29" s="11">
         <f t="shared" ref="H29:H35" ca="1" si="6">H27-1</f>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
@@ -3253,7 +3269,7 @@
       </c>
       <c r="E30" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="5"/>
@@ -3261,7 +3277,7 @@
       </c>
       <c r="H30" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
@@ -3287,7 +3303,7 @@
       </c>
       <c r="E31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="5"/>
@@ -3295,7 +3311,7 @@
       </c>
       <c r="H31" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
@@ -3318,7 +3334,7 @@
       </c>
       <c r="E32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="5"/>
@@ -3326,7 +3342,7 @@
       </c>
       <c r="H32" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
@@ -3349,7 +3365,7 @@
       </c>
       <c r="E33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="5"/>
@@ -3357,7 +3373,7 @@
       </c>
       <c r="H33" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="4"/>
@@ -3380,7 +3396,7 @@
       </c>
       <c r="E34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="5"/>
@@ -3388,7 +3404,7 @@
       </c>
       <c r="H34" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="4"/>
@@ -3411,7 +3427,7 @@
       </c>
       <c r="E35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="5"/>
@@ -3419,7 +3435,7 @@
       </c>
       <c r="H35" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="4"/>
@@ -3442,7 +3458,7 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3461,7 +3477,7 @@
       </c>
       <c r="E37" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="I37">
         <f ca="1">SUM(I26:I36)</f>
@@ -3484,7 +3500,7 @@
       </c>
       <c r="E38" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3503,7 +3519,7 @@
       </c>
       <c r="E39" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3522,7 +3538,7 @@
       </c>
       <c r="E40" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3541,7 +3557,7 @@
       </c>
       <c r="E41" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3560,7 +3576,7 @@
       </c>
       <c r="E42" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3579,7 +3595,7 @@
       </c>
       <c r="E43" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3598,7 +3614,7 @@
       </c>
       <c r="E44" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3617,7 +3633,7 @@
       </c>
       <c r="E45" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3636,7 +3652,7 @@
       </c>
       <c r="E46" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3655,7 +3671,7 @@
       </c>
       <c r="E47" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3674,7 +3690,7 @@
       </c>
       <c r="E48" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3693,7 +3709,7 @@
       </c>
       <c r="E49" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3712,7 +3728,7 @@
       </c>
       <c r="E50" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3731,7 +3747,7 @@
       </c>
       <c r="E51" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
   </sheetData>
@@ -3743,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6323D2-4127-41BA-8143-011E5256B8C7}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3752,7 +3768,7 @@
     <col min="7" max="7" width="20.5546875" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
@@ -3794,7 +3810,7 @@
       </c>
       <c r="E2" s="19">
         <f ca="1">TODAY()</f>
-        <v>45774</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -3813,7 +3829,7 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E11" ca="1" si="1">TODAY()</f>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>23</v>
@@ -3838,7 +3854,7 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -3847,19 +3863,19 @@
         <v>16</v>
       </c>
       <c r="L4" s="24">
-        <v>45758</v>
+        <v>45777</v>
       </c>
       <c r="M4" s="24">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="N4" s="24">
-        <v>45761</v>
+        <v>45775</v>
       </c>
       <c r="O4" s="24">
-        <v>45760</v>
+        <v>45774</v>
       </c>
       <c r="P4" s="24">
-        <v>45759</v>
+        <v>45773</v>
       </c>
       <c r="Q4" s="24" t="s">
         <v>17</v>
@@ -3881,27 +3897,27 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="28">
+        <v>53</v>
+      </c>
+      <c r="M5" s="28">
+        <v>11</v>
+      </c>
+      <c r="N5" s="28">
+        <v>49</v>
+      </c>
+      <c r="O5" s="28">
+        <v>75</v>
+      </c>
+      <c r="P5" s="28">
         <v>56</v>
       </c>
-      <c r="M5">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5">
-        <v>49</v>
-      </c>
-      <c r="P5">
-        <v>75</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" s="28">
         <v>244</v>
       </c>
     </row>
@@ -3921,7 +3937,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -3929,22 +3945,22 @@
       <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="28">
+        <v>434</v>
+      </c>
+      <c r="M6" s="28">
+        <v>480</v>
+      </c>
+      <c r="N6" s="28">
+        <v>467</v>
+      </c>
+      <c r="O6" s="28">
+        <v>537</v>
+      </c>
+      <c r="P6" s="28">
         <v>470</v>
       </c>
-      <c r="M6">
-        <v>434</v>
-      </c>
-      <c r="N6">
-        <v>480</v>
-      </c>
-      <c r="O6">
-        <v>467</v>
-      </c>
-      <c r="P6">
-        <v>537</v>
-      </c>
-      <c r="Q6">
+      <c r="Q6" s="28">
         <v>2388</v>
       </c>
     </row>
@@ -3964,7 +3980,7 @@
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G7" s="24">
         <v>45758</v>
@@ -3972,22 +3988,22 @@
       <c r="K7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="28">
+        <v>487</v>
+      </c>
+      <c r="M7" s="28">
+        <v>491</v>
+      </c>
+      <c r="N7" s="28">
+        <v>516</v>
+      </c>
+      <c r="O7" s="28">
+        <v>612</v>
+      </c>
+      <c r="P7" s="28">
         <v>526</v>
       </c>
-      <c r="M7">
-        <v>487</v>
-      </c>
-      <c r="N7">
-        <v>491</v>
-      </c>
-      <c r="O7">
-        <v>516</v>
-      </c>
-      <c r="P7">
-        <v>612</v>
-      </c>
-      <c r="Q7">
+      <c r="Q7" s="28">
         <v>2632</v>
       </c>
     </row>
@@ -4007,7 +4023,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4026,7 +4042,7 @@
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -4045,7 +4061,7 @@
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>16</v>
@@ -4085,7 +4101,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -4137,7 +4153,7 @@
       </c>
       <c r="E12" s="20">
         <f ca="1">E2-1</f>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -4183,7 +4199,7 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" ref="E13:E51" ca="1" si="3">E3-1</f>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4232,7 +4248,7 @@
       </c>
       <c r="E14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="Q14" t="s">
         <v>46</v>
@@ -4254,7 +4270,7 @@
       </c>
       <c r="E15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4273,7 +4289,7 @@
       </c>
       <c r="E16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4292,7 +4308,7 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>23</v>
@@ -4317,7 +4333,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>16</v>
@@ -4348,19 +4364,19 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="K19" s="25">
-        <v>45758</v>
-      </c>
-      <c r="L19">
-        <v>56</v>
-      </c>
-      <c r="M19">
-        <v>470</v>
-      </c>
-      <c r="N19">
-        <v>526</v>
+        <v>45777</v>
+      </c>
+      <c r="L19" s="28">
+        <v>53</v>
+      </c>
+      <c r="M19" s="28">
+        <v>434</v>
+      </c>
+      <c r="N19" s="28">
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -4379,19 +4395,19 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="K20" s="25">
-        <v>45762</v>
-      </c>
-      <c r="L20">
-        <v>53</v>
-      </c>
-      <c r="M20">
-        <v>434</v>
-      </c>
-      <c r="N20">
-        <v>487</v>
+        <v>45776</v>
+      </c>
+      <c r="L20" s="28">
+        <v>11</v>
+      </c>
+      <c r="M20" s="28">
+        <v>480</v>
+      </c>
+      <c r="N20" s="28">
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -4410,19 +4426,19 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="K21" s="25">
-        <v>45761</v>
-      </c>
-      <c r="L21">
-        <v>11</v>
-      </c>
-      <c r="M21">
-        <v>480</v>
-      </c>
-      <c r="N21">
-        <v>491</v>
+        <v>45775</v>
+      </c>
+      <c r="L21" s="28">
+        <v>49</v>
+      </c>
+      <c r="M21" s="28">
+        <v>467</v>
+      </c>
+      <c r="N21" s="28">
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -4441,19 +4457,19 @@
       </c>
       <c r="E22" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K22" s="25">
-        <v>45760</v>
-      </c>
-      <c r="L22">
-        <v>49</v>
-      </c>
-      <c r="M22">
-        <v>467</v>
-      </c>
-      <c r="N22">
-        <v>516</v>
+        <v>45774</v>
+      </c>
+      <c r="L22" s="28">
+        <v>75</v>
+      </c>
+      <c r="M22" s="28">
+        <v>537</v>
+      </c>
+      <c r="N22" s="28">
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -4472,19 +4488,19 @@
       </c>
       <c r="E23" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K23" s="25">
-        <v>45759</v>
-      </c>
-      <c r="L23">
-        <v>75</v>
-      </c>
-      <c r="M23">
-        <v>537</v>
-      </c>
-      <c r="N23">
-        <v>612</v>
+        <v>45773</v>
+      </c>
+      <c r="L23" s="28">
+        <v>56</v>
+      </c>
+      <c r="M23" s="28">
+        <v>470</v>
+      </c>
+      <c r="N23" s="28">
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -4503,18 +4519,18 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="28">
         <v>244</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="28">
         <v>2388</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="28">
         <v>2632</v>
       </c>
     </row>
@@ -4534,7 +4550,7 @@
       </c>
       <c r="E25" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -4553,7 +4569,7 @@
       </c>
       <c r="E26" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -4572,7 +4588,7 @@
       </c>
       <c r="E27" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>16</v>
@@ -4603,7 +4619,7 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K28" s="25">
         <v>45754</v>
@@ -4637,7 +4653,7 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K29" s="25">
         <v>45755</v>
@@ -4671,7 +4687,7 @@
       </c>
       <c r="E30" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K30" s="25">
         <v>45756</v>
@@ -4705,7 +4721,7 @@
       </c>
       <c r="E31" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="K31" s="25">
         <v>45757</v>
@@ -4739,7 +4755,7 @@
       </c>
       <c r="E32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="K32" s="25">
         <v>45758</v>
@@ -4773,7 +4789,7 @@
       </c>
       <c r="E33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>17</v>
@@ -4807,7 +4823,7 @@
       </c>
       <c r="E34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -4826,7 +4842,7 @@
       </c>
       <c r="E35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -4845,7 +4861,7 @@
       </c>
       <c r="E36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -4864,7 +4880,7 @@
       </c>
       <c r="E37" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -4883,7 +4899,7 @@
       </c>
       <c r="E38" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -4902,7 +4918,7 @@
       </c>
       <c r="E39" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -4921,7 +4937,7 @@
       </c>
       <c r="E40" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -4940,7 +4956,7 @@
       </c>
       <c r="E41" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>45771</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -4959,7 +4975,7 @@
       </c>
       <c r="E42" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -4978,7 +4994,7 @@
       </c>
       <c r="E43" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -4997,7 +5013,7 @@
       </c>
       <c r="E44" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -5016,7 +5032,7 @@
       </c>
       <c r="E45" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -5035,7 +5051,7 @@
       </c>
       <c r="E46" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -5054,7 +5070,7 @@
       </c>
       <c r="E47" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -5073,7 +5089,7 @@
       </c>
       <c r="E48" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -5092,7 +5108,7 @@
       </c>
       <c r="E49" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -5111,7 +5127,7 @@
       </c>
       <c r="E50" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5130,7 +5146,7 @@
       </c>
       <c r="E51" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
     </row>
   </sheetData>
